--- a/files/template/template_general.xlsx
+++ b/files/template/template_general.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\SmartField\files\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\xampp\htdocs\Smart_SAQ\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410AF1E-A4B0-4F2F-9023-0B45DA93E9E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Site Name</t>
   </si>
@@ -277,14 +273,18 @@
   </si>
   <si>
     <t>DNS Office ID</t>
+  </si>
+  <si>
+    <t>15/9/2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,6 +428,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,32 +742,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
     <col min="13" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="34.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="34.44140625" customWidth="1"/>
     <col min="27" max="27" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -849,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -871,8 +872,8 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="11">
-        <v>37781</v>
+      <c r="J2" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="13">
@@ -910,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -932,7 +933,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="11">
+      <c r="J3" s="18">
         <v>40430</v>
       </c>
       <c r="K3" s="11"/>
@@ -971,7 +972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -993,7 +994,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="11">
+      <c r="J4" s="18">
         <v>38635</v>
       </c>
       <c r="K4" s="11"/>
@@ -1037,21 +1038,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1462,14 +1463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/template/template_general.xlsx
+++ b/files/template/template_general.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\xampp\htdocs\Smart_SAQ\files\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Smart_SAQ\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410AF1E-A4B0-4F2F-9023-0B45DA93E9E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -281,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -742,32 +740,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="34.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="34.42578125" customWidth="1"/>
     <col min="27" max="27" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -850,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -911,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -972,7 +970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1038,21 +1036,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1274,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1344,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1460,18 +1458,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>